--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,130 +49,136 @@
     <t>thin</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
-  </si>
-  <si>
-    <t>wonderful</t>
   </si>
   <si>
     <t>favorite</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.765625</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C6">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.5471698113207547</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7419354838709677</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C7">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.46875</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7281553398058253</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8">
         <v>0.4057971014492754</v>
@@ -944,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7183098591549296</v>
+        <v>0.7233009708737864</v>
       </c>
       <c r="C9">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>0.3434426229508197</v>
@@ -994,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7105263157894737</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.2740315638450502</v>
+        <v>0.3127690100430416</v>
       </c>
       <c r="L10">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="M10">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>506</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6428571428571429</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.2510373443983402</v>
+        <v>0.2697095435684647</v>
       </c>
       <c r="L11">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M11">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6418918918918919</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.2166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5882352941176471</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.1834862385321101</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4909090909090909</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.1428571428571428</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4695652173913044</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C16">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D16">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.1044176706827309</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4330708661417323</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C17">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.0736196319018405</v>
+        <v>0.07099035933391762</v>
       </c>
       <c r="L17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4259259259259259</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,31 +1418,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K18">
-        <v>0.03441558441558441</v>
+        <v>0.02401038286826736</v>
       </c>
       <c r="L18">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1487</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4216867469879518</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4210526315789473</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1496,13 +1502,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4126984126984127</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1514,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1522,13 +1528,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4074074074074074</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1540,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1548,13 +1554,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3833333333333334</v>
+        <v>0.328125</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1566,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1574,13 +1580,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3595505617977528</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1600,13 +1606,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3366336633663367</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C25">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1618,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>134</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1626,13 +1632,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.296875</v>
+        <v>0.2796208530805687</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>90</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1652,13 +1658,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2843601895734597</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1678,13 +1684,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2393162393162393</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1696,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1704,13 +1710,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2371134020618557</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1722,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>148</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1730,13 +1736,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1795252225519288</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C30">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1748,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>553</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1756,13 +1762,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1708860759493671</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1774,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1782,13 +1788,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1677215189873418</v>
+        <v>0.185</v>
       </c>
       <c r="C32">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1800,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>263</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1808,13 +1814,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1594202898550725</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1834,13 +1840,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1464968152866242</v>
+        <v>0.1719745222929936</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1852,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1860,13 +1866,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1428571428571428</v>
+        <v>0.1661721068249258</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1878,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>150</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1886,13 +1892,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1401869158878505</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1912,13 +1918,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1255506607929515</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1930,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1938,13 +1944,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.125</v>
+        <v>0.1308411214953271</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1956,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1964,25 +1970,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1041095890410959</v>
+        <v>0.1239193083573487</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1990,25 +1996,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.100864553314121</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>312</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2016,13 +2022,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.08870967741935484</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2034,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2042,13 +2048,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.08239700374531835</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2060,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>245</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2068,13 +2074,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05790645879732739</v>
+        <v>0.0623608017817372</v>
       </c>
       <c r="C43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2086,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2094,13 +2100,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.05098684210526316</v>
+        <v>0.06197183098591549</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2112,7 +2118,59 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>577</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.05436573311367381</v>
+      </c>
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
+      </c>
+      <c r="F45">
+        <v>0.97</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.05324074074074074</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>0.08</v>
+      </c>
+      <c r="F46">
+        <v>0.92</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
